--- a/equ.xlsx
+++ b/equ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/udxs/Documents/Code/ece5-robot-site/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{83834B61-C02F-0E4F-8CE0-852741D72CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{902A4085-B279-3347-A9E3-D4083B9F834C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="27340" windowHeight="16940" xr2:uid="{340EAC8E-4D13-9E42-A469-326637D59387}"/>
+    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" xr2:uid="{340EAC8E-4D13-9E42-A469-326637D59387}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Real</t>
   </si>
@@ -668,6 +668,79 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C664-384F-83E5-C8F312083367}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>2nd Observed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$29:$R$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-1075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1204</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1239</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1179</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-827</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-493</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-418</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-298</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-281</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-296</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-395</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7465-A147-AB75-2B37AB65EE76}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1453,6 +1526,515 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>'Observed' by 'Real'</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Observed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>-1078</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1132</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-850</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-725</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-593</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-468</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-237</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-192</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-212</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-312</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-ABE9-004E-804A-A62163D30F49}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2018577552"/>
+        <c:axId val="2018673760"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2018577552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Real</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018673760"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2018673760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Observed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2018577552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+          <c:dispUnitsLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+          </c:dispUnitsLbl>
+        </c:dispUnits>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1573,6 +2155,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3102,6 +3724,522 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -3226,6 +4364,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581074</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>147191</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>220263</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>45265</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4" descr="Chart type: Line. 'Observed' by 'Real'&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D2AF68-DE48-2E44-A035-CB2E8B3F3705}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3531,15 +4705,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F25C54D-57D2-CF43-A0AD-7451087EC359}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:V41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="156" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0.59</v>
       </c>
@@ -3555,8 +4729,14 @@
       <c r="N1" t="s">
         <v>0</v>
       </c>
+      <c r="U1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.75</v>
       </c>
@@ -3572,8 +4752,14 @@
       <c r="N2">
         <v>-3</v>
       </c>
+      <c r="U2">
+        <v>-1078</v>
+      </c>
+      <c r="V2">
+        <v>-3</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.72</v>
       </c>
@@ -3589,8 +4775,14 @@
       <c r="N3">
         <v>-2.5</v>
       </c>
+      <c r="U3">
+        <v>-1178</v>
+      </c>
+      <c r="V3">
+        <v>-2.5</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.4</v>
       </c>
@@ -3606,8 +4798,14 @@
       <c r="N4">
         <v>-2</v>
       </c>
+      <c r="U4">
+        <v>-1132</v>
+      </c>
+      <c r="V4">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.08</v>
       </c>
@@ -3623,8 +4821,14 @@
       <c r="N5">
         <v>-1.5</v>
       </c>
+      <c r="U5">
+        <v>-995</v>
+      </c>
+      <c r="V5">
+        <v>-1.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-0.03</v>
       </c>
@@ -3640,8 +4844,14 @@
       <c r="N6">
         <v>-1</v>
       </c>
+      <c r="U6">
+        <v>-850</v>
+      </c>
+      <c r="V6">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>0.8</v>
       </c>
@@ -3657,8 +4867,14 @@
       <c r="N7">
         <v>-0.5</v>
       </c>
+      <c r="U7">
+        <v>-725</v>
+      </c>
+      <c r="V7">
+        <v>-0.5</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8">
         <v>0</v>
       </c>
@@ -3671,8 +4887,14 @@
       <c r="N8">
         <v>0</v>
       </c>
+      <c r="U8">
+        <v>-593</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9">
         <v>0.5</v>
       </c>
@@ -3685,8 +4907,14 @@
       <c r="N9">
         <v>0.5</v>
       </c>
+      <c r="U9">
+        <v>-468</v>
+      </c>
+      <c r="V9">
+        <v>0.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10">
         <v>1</v>
       </c>
@@ -3699,8 +4927,14 @@
       <c r="N10">
         <v>1</v>
       </c>
+      <c r="U10">
+        <v>-329</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11">
         <v>1.5</v>
       </c>
@@ -3713,8 +4947,14 @@
       <c r="N11">
         <v>1.5</v>
       </c>
+      <c r="U11">
+        <v>-237</v>
+      </c>
+      <c r="V11">
+        <v>1.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12">
         <v>2</v>
       </c>
@@ -3727,8 +4967,14 @@
       <c r="N12">
         <v>2</v>
       </c>
+      <c r="U12">
+        <v>-192</v>
+      </c>
+      <c r="V12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13">
         <v>2.5</v>
       </c>
@@ -3741,8 +4987,14 @@
       <c r="N13">
         <v>2.5</v>
       </c>
+      <c r="U13">
+        <v>-212</v>
+      </c>
+      <c r="V13">
+        <v>2.5</v>
+      </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14">
         <v>3</v>
       </c>
@@ -3753,6 +5005,124 @@
         <v>-30</v>
       </c>
       <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>-312</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R28" t="s">
+        <v>1</v>
+      </c>
+      <c r="S28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R29">
+        <v>-1075</v>
+      </c>
+      <c r="S29">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="30" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R30">
+        <v>-1204</v>
+      </c>
+      <c r="S30">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R31">
+        <v>-1239</v>
+      </c>
+      <c r="S31">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="32" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R32">
+        <v>-1179</v>
+      </c>
+      <c r="S32">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R33">
+        <v>-1000</v>
+      </c>
+      <c r="S33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R34">
+        <v>-827</v>
+      </c>
+      <c r="S34">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R35">
+        <v>-679</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R36">
+        <v>-493</v>
+      </c>
+      <c r="S36">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R37">
+        <v>-418</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R38">
+        <v>-298</v>
+      </c>
+      <c r="S38">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="39" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R39">
+        <v>-281</v>
+      </c>
+      <c r="S39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R40">
+        <v>-296</v>
+      </c>
+      <c r="S40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="18:19" x14ac:dyDescent="0.2">
+      <c r="R41">
+        <v>-395</v>
+      </c>
+      <c r="S41">
         <v>3</v>
       </c>
     </row>
